--- a/3조 일정 폼.xlsx
+++ b/3조 일정 폼.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeje\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeje\Documents\Kubway\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F65CF3D-E751-4EEC-9242-B5AE707C6672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73A3AF6-90E7-4863-9220-71AF5DFAA0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{6692EEA6-D6F7-4B35-9A83-0CD9BA00B6CF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>Kubway</t>
   </si>
@@ -146,18 +146,12 @@
     <t>메인 창</t>
   </si>
   <si>
-    <t>이재원</t>
-  </si>
-  <si>
     <t>메뉴 선택 창</t>
   </si>
   <si>
     <t>빵 선택 창</t>
   </si>
   <si>
-    <t>유병헌</t>
-  </si>
-  <si>
     <t>치즈 선택 창</t>
   </si>
   <si>
@@ -213,6 +207,26 @@
   </si>
   <si>
     <t>작성 날짜 (2019-11-11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재원, 유병헌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Github 참조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채현우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위 하위항목</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -638,7 +652,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -646,16 +662,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -665,40 +683,12 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -728,7 +718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,6 +824,57 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,63 +913,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1249,7 +1233,7 @@
   <dimension ref="A2:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -1266,89 +1250,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.6">
-      <c r="A2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
+      <c r="A2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
+      <c r="A4" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="35" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="40" t="s">
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41" t="s">
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="36" t="s">
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="47"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="26" t="s">
         <v>9</v>
       </c>
@@ -1391,7 +1375,7 @@
       <c r="Q6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="43"/>
+      <c r="R6" s="60"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A7" s="10" t="s">
@@ -1403,8 +1387,8 @@
       <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="23">
         <v>1</v>
       </c>
@@ -1417,15 +1401,15 @@
       <c r="I7" s="25">
         <v>1</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="63"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="49"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A8" s="3"/>
@@ -1457,7 +1441,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="64"/>
+      <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A9" s="3"/>
@@ -1489,7 +1473,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="64"/>
+      <c r="R9" s="50"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A10" s="3"/>
@@ -1521,7 +1505,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="64"/>
+      <c r="R10" s="50"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A11" s="3"/>
@@ -1553,7 +1537,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="64"/>
+      <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
@@ -1587,7 +1571,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="64"/>
+      <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="3"/>
@@ -1619,7 +1603,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="64"/>
+      <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
@@ -1629,7 +1613,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
@@ -1637,14 +1621,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H14" s="18">
         <v>1</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ref="I14:I29" si="0">AVERAGE(F14:H14)</f>
-        <v>0.5</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
@@ -1654,15 +1638,17 @@
       <c r="O14" s="31"/>
       <c r="P14" s="31"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="64"/>
+      <c r="R14" s="50" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
@@ -1687,15 +1673,17 @@
       <c r="O15" s="31"/>
       <c r="P15" s="31"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="64"/>
+      <c r="R15" s="50" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
@@ -1703,14 +1691,14 @@
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H16" s="18">
         <v>1</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
@@ -1720,15 +1708,17 @@
       <c r="O16" s="31"/>
       <c r="P16" s="31"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="64"/>
+      <c r="R16" s="50" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -1736,14 +1726,14 @@
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H17" s="18">
         <v>1</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
@@ -1753,15 +1743,17 @@
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="64"/>
+      <c r="R17" s="50" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
@@ -1769,14 +1761,14 @@
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H18" s="18">
         <v>1</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
@@ -1786,15 +1778,17 @@
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="64"/>
+      <c r="R18" s="50" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
@@ -1802,14 +1796,14 @@
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="18">
         <v>1</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="2"/>
@@ -1819,15 +1813,17 @@
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="64"/>
+      <c r="R19" s="50" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
@@ -1852,15 +1848,17 @@
       <c r="O20" s="31"/>
       <c r="P20" s="31"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="64"/>
+      <c r="R20" s="50" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -1885,15 +1883,17 @@
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="64"/>
+      <c r="R21" s="50" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -1918,51 +1918,57 @@
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="64"/>
+      <c r="R22" s="50" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52">
-        <v>0</v>
-      </c>
-      <c r="G23" s="53">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38">
+        <v>0</v>
+      </c>
+      <c r="G23" s="39">
         <v>0.2</v>
       </c>
-      <c r="H23" s="53">
-        <v>1</v>
-      </c>
-      <c r="I23" s="54">
+      <c r="H23" s="39">
+        <v>1</v>
+      </c>
+      <c r="I23" s="40">
         <f t="shared" si="0"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="65"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="50" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F24" s="17">
         <v>0</v>
       </c>
@@ -1984,17 +1990,19 @@
       <c r="O24" s="31"/>
       <c r="P24" s="31"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="64"/>
+      <c r="R24" s="50" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -2002,32 +2010,32 @@
         <v>0</v>
       </c>
       <c r="G25" s="18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H25" s="18">
         <v>0</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="64"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="50"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -2035,35 +2043,37 @@
         <v>0</v>
       </c>
       <c r="G26" s="18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H26" s="18">
         <v>0</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="64"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="50"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F27" s="17">
         <v>0</v>
       </c>
@@ -2082,21 +2092,23 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="64"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="50"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F28" s="17">
         <v>0</v>
       </c>
@@ -2115,20 +2127,20 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="64"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="50"/>
     </row>
     <row r="29" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="7"/>
@@ -2136,14 +2148,14 @@
         <v>1</v>
       </c>
       <c r="G29" s="21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="21">
         <v>1</v>
       </c>
       <c r="I29" s="22">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J29" s="32"/>
       <c r="K29" s="33"/>
@@ -2153,8 +2165,8 @@
       <c r="O29" s="33"/>
       <c r="P29" s="33"/>
       <c r="Q29" s="34"/>
-      <c r="R29" s="66" t="s">
-        <v>54</v>
+      <c r="R29" s="51" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
